--- a/Site Institucional/Dashboard/Dashboard_v1.xlsx
+++ b/Site Institucional/Dashboard/Dashboard_v1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25721"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20752A1D-4F4C-4F19-8B18-74C4260F1DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -51,18 +50,6 @@
     <t>Temperatura/Umidade</t>
   </si>
   <si>
-    <t>MINIMO</t>
-  </si>
-  <si>
-    <t>MAXIMO</t>
-  </si>
-  <si>
-    <t>Mes</t>
-  </si>
-  <si>
-    <t>Qtd Vr Inregular</t>
-  </si>
-  <si>
     <t>Janeiro</t>
   </si>
   <si>
@@ -74,12 +61,24 @@
   <si>
     <t>Abril</t>
   </si>
+  <si>
+    <t>Qtd Vr Irregular</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>MÍNIMO</t>
+  </si>
+  <si>
+    <t>MÁXIMO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,30 +178,30 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -223,9 +222,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -262,6 +261,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -270,26 +270,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -343,7 +323,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -354,7 +334,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -414,7 +394,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E80D-4A34-AE25-BB6D25A4E6BE}"/>
             </c:ext>
@@ -428,12 +408,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139027240"/>
-        <c:axId val="765432584"/>
+        <c:axId val="192240640"/>
+        <c:axId val="162840576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139027240"/>
+        <c:axId val="192240640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -472,10 +453,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765432584"/>
+        <c:crossAx val="162840576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="765432584"/>
+        <c:axId val="162840576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,10 +512,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139027240"/>
+        <c:crossAx val="192240640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -548,6 +529,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -573,7 +555,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -603,7 +585,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -615,9 +597,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -654,6 +636,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -662,26 +645,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -734,7 +697,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -746,7 +709,7 @@
             <c:showBubbleSize val="0"/>
             <c:separator>, </c:separator>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -806,7 +769,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3DD2-49DD-BD32-D27A17577111}"/>
             </c:ext>
@@ -820,12 +783,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="412473544"/>
-        <c:axId val="21918600"/>
+        <c:axId val="193069568"/>
+        <c:axId val="162842304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="412473544"/>
+        <c:axId val="193069568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,10 +828,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21918600"/>
+        <c:crossAx val="162842304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -875,7 +839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21918600"/>
+        <c:axId val="162842304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -923,10 +887,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412473544"/>
+        <c:crossAx val="193069568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -940,6 +904,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -965,7 +930,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -995,7 +960,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1007,9 +972,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1046,6 +1011,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1054,26 +1020,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1139,7 +1085,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-64D7-4979-B329-86B5CB8D7BE3}"/>
             </c:ext>
@@ -1155,11 +1101,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="553214471"/>
-        <c:axId val="1765015815"/>
+        <c:axId val="193071104"/>
+        <c:axId val="162844032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="553214471"/>
+        <c:axId val="193071104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,10 +1145,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1765015815"/>
+        <c:crossAx val="162844032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1210,7 +1156,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1765015815"/>
+        <c:axId val="162844032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,10 +1204,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553214471"/>
+        <c:crossAx val="193071104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1275,6 +1221,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1300,7 +1247,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1330,7 +1277,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1342,9 +1289,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1381,6 +1328,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1389,26 +1337,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1474,7 +1402,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AD6B-4A57-B3D7-3F1358CE9A81}"/>
             </c:ext>
@@ -1490,11 +1418,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="366153224"/>
-        <c:axId val="617909592"/>
+        <c:axId val="193072640"/>
+        <c:axId val="162845760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="366153224"/>
+        <c:axId val="193072640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,10 +1462,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617909592"/>
+        <c:crossAx val="162845760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1545,7 +1473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617909592"/>
+        <c:axId val="162845760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,10 +1521,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366153224"/>
+        <c:crossAx val="193072640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1610,6 +1538,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1635,7 +1564,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1665,7 +1594,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3894,7 +3823,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D79832DC-2B88-5945-7E5A-92BE2D3A7D34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D79832DC-2B88-5945-7E5A-92BE2D3A7D34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3930,10 +3859,10 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2493BEE5-0589-D3E0-5164-77845B77D019}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2493BEE5-0589-D3E0-5164-77845B77D019}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D79832DC-2B88-5945-7E5A-92BE2D3A7D34}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D79832DC-2B88-5945-7E5A-92BE2D3A7D34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3969,10 +3898,10 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A540C6B-0B64-0D64-564D-641E25109479}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A540C6B-0B64-0D64-564D-641E25109479}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2493BEE5-0589-D3E0-5164-77845B77D019}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{2493BEE5-0589-D3E0-5164-77845B77D019}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4008,10 +3937,10 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E856F345-6F79-E0C5-EDEC-B5F4561FCDC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E856F345-6F79-E0C5-EDEC-B5F4561FCDC2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4A540C6B-0B64-0D64-564D-641E25109479}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4A540C6B-0B64-0D64-564D-641E25109479}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4075,7 +4004,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4127,7 +4056,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4321,21 +4250,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -4345,371 +4274,372 @@
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>20</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>75</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>44831.489583333336</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>24</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>90</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>44831.53125</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>25</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>80</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>44831.572916666664</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>22</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>77</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>44831.614583333336</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>21</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>84</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <v>44831.65625</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="5">
         <f>MIN(B3:B12)</f>
         <v>20</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <f>MIN(C3:C12)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>23</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>89</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
         <v>44831.697916666664</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>25</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>76</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="7">
         <v>44831.739583333336</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="5">
         <f>MAX(B3:B12)</f>
         <v>25</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <f>MAX(C3:C12)</f>
         <v>90</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>20</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>88</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="7">
         <v>44831.78125</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>21</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>86</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="7">
         <v>44831.822916666664</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>24</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>79</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="7">
         <v>44831.864583333336</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C18" s="2">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="C19" s="2">
+        <v>21</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3">
-        <v>15</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3">
-        <v>6</v>
-      </c>
-      <c r="E18" s="4">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3">
-        <v>21</v>
-      </c>
-      <c r="E19" s="4">
-        <v>4</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
@@ -4721,7 +4651,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
